--- a/Case2/solution/sol_s1.xlsx
+++ b/Case2/solution/sol_s1.xlsx
@@ -51,28 +51,28 @@
     <t>1230662600.0</t>
   </si>
   <si>
-    <t>4570.0</t>
+    <t>4170.0</t>
   </si>
   <si>
-    <t>863155.0</t>
+    <t>901227.0</t>
   </si>
   <si>
-    <t>12838431.4</t>
+    <t>12762479.4</t>
   </si>
   <si>
-    <t>1949750.0</t>
+    <t>1941500.0</t>
   </si>
   <si>
-    <t>16816137.41</t>
+    <t>16816137.42</t>
   </si>
   <si>
     <t>19307482.0</t>
   </si>
   <si>
-    <t>36700.0</t>
+    <t>36000.0</t>
   </si>
   <si>
-    <t>1282478825.81</t>
+    <t>1282431595.82</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>164</v>
       </c>
       <c r="Z37">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -13319,28 +13319,28 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -13411,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H56">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -14665,10 +14665,10 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -14686,10 +14686,10 @@
         <v>246</v>
       </c>
       <c r="Q71">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         <v>315</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -15471,7 +15471,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -16224,28 +16224,28 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -16304,7 +16304,7 @@
         <v>145</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -17642,13 +17642,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>71</v>
@@ -17678,7 +17678,7 @@
         <v>91</v>
       </c>
       <c r="O6">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -19246,7 +19246,7 @@
         <v>139</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M25">
         <v>251</v>
@@ -19883,7 +19883,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>517</v>
+        <v>833</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -20186,16 +20186,16 @@
         <v>52</v>
       </c>
       <c r="U36">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -20298,28 +20298,28 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -21709,28 +21709,28 @@
         <v>106</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D55">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>267</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G55">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>39</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J55">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>306</v>
@@ -21801,10 +21801,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>87</v>
@@ -22258,7 +22258,7 @@
         <v>293</v>
       </c>
       <c r="T61">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="U61">
         <v>22</v>
@@ -23058,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="K71">
         <v>51</v>
@@ -23076,10 +23076,10 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="Q71">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R71">
         <v>214</v>
@@ -23097,7 +23097,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="X71">
         <v>146</v>
@@ -23289,16 +23289,16 @@
         <v>209</v>
       </c>
       <c r="D74">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E74">
         <v>49</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G74">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -23811,7 +23811,7 @@
         <v>49</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>49</v>
       </c>
       <c r="F81">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G81">
         <v>138</v>
@@ -24143,16 +24143,16 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M84">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N84">
         <v>40</v>
       </c>
       <c r="O84">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P84">
         <v>210</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -24614,28 +24614,28 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D90">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>114</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="G90">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>204</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J90">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>71</v>
@@ -24694,7 +24694,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="C91">
         <v>142</v>
@@ -24991,13 +24991,13 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T94">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>212</v>
@@ -25798,19 +25798,19 @@
         <v>91</v>
       </c>
       <c r="G3">
-        <v>14.99999999999682</v>
+        <v>14.99999999999864</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.99999999995862</v>
+        <v>22.99999999999682</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.99999999999199</v>
+        <v>12.99999999999636</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>27.999999999995</v>
+        <v>27.99999999999818</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>3.999999999994202</v>
+        <v>3.999999999999091</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26634,13 +26634,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9999999999972715</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9999999999934062</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -26652,7 +26652,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.999999999998181</v>
+        <v>6</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.999999999996362</v>
+        <v>8.999999999998636</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.99999999999591</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -27654,28 +27654,28 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -28285,31 +28285,31 @@
         <v>345</v>
       </c>
       <c r="F33">
-        <v>638</v>
+        <v>437</v>
       </c>
       <c r="G33">
-        <v>502</v>
+        <v>301</v>
       </c>
       <c r="H33">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="I33">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>442</v>
+        <v>758</v>
       </c>
       <c r="M33">
-        <v>261</v>
+        <v>577</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="O33">
         <v>255</v>
@@ -28321,28 +28321,28 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>553.9999999999886</v>
+        <v>554</v>
       </c>
       <c r="S33">
-        <v>329.9999999999905</v>
+        <v>330</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>340.9999999999975</v>
+        <v>341</v>
       </c>
       <c r="V33">
-        <v>246.999999999996</v>
+        <v>247</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>458.9999999999923</v>
+        <v>459</v>
       </c>
       <c r="Y33">
-        <v>250.9999999999923</v>
+        <v>251</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -28442,73 +28442,73 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="D35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="E35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="F35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="G35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="H35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="I35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="J35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="K35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="L35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="M35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="N35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="O35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="P35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="Q35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="R35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="S35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="T35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="U35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="V35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="W35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="X35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="Y35">
-        <v>0.2999999999979082</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -28700,25 +28700,25 @@
         <v>74</v>
       </c>
       <c r="F38">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="H38">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K38">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>186</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>226</v>
+        <v>225.9999999999986</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -28940,79 +28940,79 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.3999999999978172</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="D41">
-        <v>47.39999999999418</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="E41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="F41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="G41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="H41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="I41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="J41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="K41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="L41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="M41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="N41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="O41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="P41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="Q41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="R41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="S41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="T41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="U41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="V41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="W41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="X41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="Y41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="Z41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="AA41">
-        <v>0.3999999999959982</v>
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -29272,73 +29272,73 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="D45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="E45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="F45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="G45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="H45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="I45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="K45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="L45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="M45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="N45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="O45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="P45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="Q45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="R45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="S45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="T45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="U45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="V45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="W45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="X45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="Y45">
-        <v>0.7999999999992724</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -30603,61 +30603,61 @@
         <v>0.8000000000000114</v>
       </c>
       <c r="D61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="E61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="F61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="G61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="H61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="I61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="K61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="L61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="M61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="N61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="O61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="P61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="Q61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="R61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="S61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="T61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="U61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="V61">
-        <v>0.8</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="W61">
         <v>0.8</v>
@@ -30932,79 +30932,79 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.1999999999989086</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="D65">
-        <v>59.19999999999436</v>
+        <v>59.19999999999999</v>
       </c>
       <c r="E65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="F65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="G65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="H65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="I65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="J65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="K65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="L65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="M65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="N65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="O65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="P65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="Q65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="R65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="S65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="T65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="U65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="V65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="W65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="X65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="Y65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="Z65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="AA65">
-        <v>0.1999999999939064</v>
+        <v>0.1999999999999886</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -31697,7 +31697,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -31762,79 +31762,79 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0.5999999999980901</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="D75">
-        <v>0.6000000000002492</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="E75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="F75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="G75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="H75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="I75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="J75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="K75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="L75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="M75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="N75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="O75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="P75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="R75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="V75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA75">
-        <v>0.5999999999979195</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -31854,7 +31854,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>94</v>
+        <v>93.99999999999545</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -31872,7 +31872,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>87</v>
+        <v>86.99999999999318</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -31902,22 +31902,22 @@
         <v>0</v>
       </c>
       <c r="V76">
-        <v>35</v>
+        <v>34.99999999999898</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y76">
-        <v>34</v>
+        <v>33.99999999999937</v>
       </c>
       <c r="Z76">
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -32112,7 +32112,7 @@
         <v>181</v>
       </c>
       <c r="I79">
-        <v>3.999999999999545</v>
+        <v>3.999999999999432</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -32515,7 +32515,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1.999999999998934</v>
+        <v>1.999999999996362</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>8.999999999999744</v>
+        <v>4</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>14.00000000000001</v>
+        <v>14</v>
       </c>
       <c r="V84">
-        <v>14.00000000000001</v>
+        <v>14</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -32592,79 +32592,79 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.1999999999975444</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="D85">
-        <v>0.1999999999975444</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="E85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="F85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="G85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="H85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="I85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="J85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="K85">
-        <v>0.1999999999967486</v>
+        <v>0.2</v>
       </c>
       <c r="L85">
-        <v>0.1999999999966349</v>
+        <v>0.2</v>
       </c>
       <c r="M85">
-        <v>0.1999999999959243</v>
+        <v>0.2</v>
       </c>
       <c r="N85">
-        <v>0.1999999999959243</v>
+        <v>0.2</v>
       </c>
       <c r="O85">
-        <v>0.1999999999959243</v>
+        <v>0.2</v>
       </c>
       <c r="P85">
-        <v>0.1999999999959243</v>
+        <v>0.2</v>
       </c>
       <c r="Q85">
-        <v>0.1999999999959243</v>
+        <v>0.2</v>
       </c>
       <c r="R85">
-        <v>0.1999999999959243</v>
+        <v>0.2</v>
       </c>
       <c r="S85">
-        <v>0.1999999999956685</v>
+        <v>0.2</v>
       </c>
       <c r="T85">
-        <v>0.1999999999953062</v>
+        <v>0.2</v>
       </c>
       <c r="U85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
       <c r="V85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
       <c r="W85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
       <c r="Y85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
       <c r="Z85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
       <c r="AA85">
-        <v>0.1999999999951996</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -32702,49 +32702,49 @@
         <v>172</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q86">
         <v>201</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U86">
         <v>0</v>
       </c>
       <c r="V86">
-        <v>119</v>
+        <v>-0</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="X86">
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA86">
         <v>0</v>
@@ -33055,31 +33055,31 @@
         <v>0</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z90">
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -33090,76 +33090,76 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.3999999999969077</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="D91">
-        <v>0.3999999999969077</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="E91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="F91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="G91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="H91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="I91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="J91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="K91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="L91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="M91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="N91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="O91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="P91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="Q91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="R91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="S91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="T91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="U91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="V91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="W91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="X91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="Y91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="Z91">
-        <v>0.3999999999969077</v>
+        <v>0.4</v>
       </c>
       <c r="AA91">
         <v>0</v>
@@ -33339,40 +33339,40 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0.3999999999991815</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="D94">
-        <v>49.39999999999918</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="E94">
-        <v>41.39999999999918</v>
+        <v>41.40000000000001</v>
       </c>
       <c r="F94">
-        <v>0.3999999999991815</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="G94">
-        <v>46.40000000000001</v>
+        <v>46.4</v>
       </c>
       <c r="H94">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="I94">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="J94">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="K94">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="L94">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="M94">
         <v>31.4</v>
       </c>
       <c r="N94">
-        <v>0.4000000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O94">
         <v>16.4</v>
@@ -33381,10 +33381,10 @@
         <v>16.4</v>
       </c>
       <c r="Q94">
-        <v>0.3999999999994088</v>
+        <v>0.4</v>
       </c>
       <c r="R94">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="S94">
         <v>83.40000000000001</v>
@@ -33393,10 +33393,10 @@
         <v>0.4</v>
       </c>
       <c r="U94">
-        <v>23.4</v>
+        <v>0.4</v>
       </c>
       <c r="V94">
-        <v>0.3999999999999986</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="W94">
         <v>0.4</v>
@@ -33422,76 +33422,76 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="D95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="E95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="F95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="G95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="H95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="I95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="J95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="K95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="L95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="M95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="N95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="O95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="P95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="Q95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="R95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="S95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="T95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="U95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="V95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="W95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="X95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="Y95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="Z95">
-        <v>0.3999999999978172</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="AA95">
         <v>0</v>
@@ -34248,10 +34248,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>153.9999999995765</v>
+        <v>154.0000000000004</v>
       </c>
       <c r="AA3">
-        <v>269.7999999997035</v>
+        <v>269.8000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -35161,10 +35161,10 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>38.00000000000024</v>
+        <v>38</v>
       </c>
       <c r="AA14">
-        <v>92.20000000000022</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -36323,10 +36323,10 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>140.0000000000005</v>
+        <v>140.0000000000006</v>
       </c>
       <c r="AA28">
-        <v>378.0000000000005</v>
+        <v>378.0000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -36646,19 +36646,19 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>167.0000000000012</v>
+        <v>167.0000000000004</v>
       </c>
       <c r="X32">
-        <v>300.0000000000053</v>
+        <v>300.000000000001</v>
       </c>
       <c r="Y32">
-        <v>400.0000000000095</v>
+        <v>400.0000000000024</v>
       </c>
       <c r="Z32">
-        <v>609.0000000000136</v>
+        <v>609.0000000000043</v>
       </c>
       <c r="AA32">
-        <v>609.0000000000136</v>
+        <v>609.0000000000043</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -36904,10 +36904,10 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>311.7000000000021</v>
+        <v>311.7</v>
       </c>
       <c r="AA35">
-        <v>285.5300000000019</v>
+        <v>285.53</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -37734,10 +37734,10 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>279.2000000000007</v>
+        <v>279.2</v>
       </c>
       <c r="AA45">
-        <v>289.2800000000007</v>
+        <v>289.28</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -38813,10 +38813,10 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>73.00000000000333</v>
+        <v>73.00000000000017</v>
       </c>
       <c r="AA58">
-        <v>227.700000000003</v>
+        <v>227.7000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -40058,10 +40058,10 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>185.0000000000007</v>
+        <v>185.0000000000003</v>
       </c>
       <c r="AA73">
-        <v>171.5000000000007</v>
+        <v>171.5000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -40158,7 +40158,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2.159189965446647E-12</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -40464,19 +40464,19 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>111.000000000001</v>
+        <v>111.0000000000002</v>
       </c>
       <c r="X78">
-        <v>192.0000000000037</v>
+        <v>192.0000000000007</v>
       </c>
       <c r="Y78">
-        <v>529.0000000000056</v>
+        <v>529.0000000000018</v>
       </c>
       <c r="Z78">
-        <v>691.0000000000093</v>
+        <v>691.000000000003</v>
       </c>
       <c r="AA78">
-        <v>834.0000000000093</v>
+        <v>834.000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -40965,16 +40965,16 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>114.9999999999999</v>
+        <v>115</v>
       </c>
       <c r="Y84">
-        <v>275.9999999999999</v>
+        <v>276</v>
       </c>
       <c r="Z84">
-        <v>332.9999999999999</v>
+        <v>333</v>
       </c>
       <c r="AA84">
-        <v>462.9999999999999</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -41303,10 +41303,10 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>201</v>
+        <v>201.0000000000003</v>
       </c>
       <c r="AA88">
-        <v>439.9</v>
+        <v>439.9000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -41380,16 +41380,16 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>110.0000000000005</v>
+        <v>110.0000000000002</v>
       </c>
       <c r="Y89">
-        <v>127.0000000000017</v>
+        <v>127.0000000000004</v>
       </c>
       <c r="Z89">
-        <v>180.0000000000025</v>
+        <v>180.0000000000009</v>
       </c>
       <c r="AA89">
-        <v>318.0000000000025</v>
+        <v>318.0000000000009</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -41555,7 +41555,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>285.6000000000031</v>
+        <v>285.6</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -41887,7 +41887,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>167.6000000000022</v>
+        <v>167.6</v>
       </c>
     </row>
     <row r="96" spans="1:27">
